--- a/simulated_data/10nodes_30len_trial6.xlsx
+++ b/simulated_data/10nodes_30len_trial6.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.6357481879092455</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6358176395244789</v>
+        <v>20.84</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.85</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="F2" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="G2" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="H2" t="n">
+        <v>36.145</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13.055</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="K2" t="n">
+        <v>22.765</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.183707753390518</v>
+        <v>20.84</v>
       </c>
       <c r="C3" t="n">
-        <v>1.183361376672807</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.545</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.975</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33.375</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.385</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5951985798227559</v>
+        <v>27.85</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5950875702258497</v>
+        <v>4.68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.015000000000001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25.795</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.415</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.112348983674549</v>
+        <v>3.545</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.112247486893431</v>
+        <v>24.62</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25.955</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.085000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19.615</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.765000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>22.29</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.386685947648035</v>
+        <v>24.98</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3867192474823199</v>
+        <v>12.545</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25.955</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22.035</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="I6" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>21.235</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.54</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.7272696909977164</v>
+        <v>23.71</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.7271033208749769</v>
+        <v>14.975</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.085000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22.035</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9.515000000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>18.42</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.01268585237047335</v>
+        <v>36.145</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.01259023217078489</v>
+        <v>14.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.015000000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="G8" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>34.805</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18.915</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8.195</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.04890278758541062</v>
+        <v>13.055</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.04892851441598398</v>
+        <v>33.375</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25.795</v>
+      </c>
+      <c r="E9" t="n">
+        <v>19.615</v>
+      </c>
+      <c r="F9" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="H9" t="n">
+        <v>34.805</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>19.955</v>
+      </c>
+      <c r="K9" t="n">
+        <v>31.705</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.7057155885802179</v>
+        <v>12.62</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.7056763036007319</v>
+        <v>7.06</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.415</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.765000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>21.235</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.515000000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.915</v>
+      </c>
+      <c r="I10" t="n">
+        <v>19.955</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17.55</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>22.765</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>9.385</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8.195</v>
+      </c>
+      <c r="I11" t="n">
+        <v>31.705</v>
+      </c>
+      <c r="J11" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>21.38</v>
+        <v>21.98</v>
       </c>
       <c r="D2" t="n">
-        <v>24.53</v>
+        <v>21.9</v>
       </c>
       <c r="E2" t="n">
-        <v>5.73</v>
+        <v>5.32</v>
       </c>
       <c r="F2" t="n">
-        <v>31.13</v>
+        <v>23.84</v>
       </c>
       <c r="G2" t="n">
-        <v>17.01</v>
+        <v>17.69</v>
       </c>
       <c r="H2" t="n">
-        <v>30.99</v>
+        <v>24.8</v>
       </c>
       <c r="I2" t="n">
-        <v>15.98</v>
+        <v>10.69</v>
       </c>
       <c r="J2" t="n">
-        <v>11.83</v>
+        <v>13.38</v>
       </c>
       <c r="K2" t="n">
-        <v>25.77</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21.38</v>
+        <v>21.98</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.63</v>
+        <v>5.89</v>
       </c>
       <c r="E3" t="n">
-        <v>17.42</v>
+        <v>17.31</v>
       </c>
       <c r="F3" t="n">
-        <v>11.01</v>
+        <v>12.91</v>
       </c>
       <c r="G3" t="n">
-        <v>17.96</v>
+        <v>11.78</v>
       </c>
       <c r="H3" t="n">
-        <v>12.04</v>
+        <v>13.41</v>
       </c>
       <c r="I3" t="n">
-        <v>30.45</v>
+        <v>26.48</v>
       </c>
       <c r="J3" t="n">
-        <v>10.5</v>
+        <v>9.51</v>
       </c>
       <c r="K3" t="n">
-        <v>9.720000000000001</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24.53</v>
+        <v>21.9</v>
       </c>
       <c r="C4" t="n">
-        <v>5.63</v>
+        <v>5.89</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>19.71</v>
+        <v>18.19</v>
       </c>
       <c r="F4" t="n">
-        <v>6.6</v>
+        <v>7.02</v>
       </c>
       <c r="G4" t="n">
-        <v>16.66</v>
+        <v>16.48</v>
       </c>
       <c r="H4" t="n">
-        <v>6.81</v>
+        <v>7.54</v>
       </c>
       <c r="I4" t="n">
-        <v>30.79</v>
+        <v>28.55</v>
       </c>
       <c r="J4" t="n">
-        <v>12.76</v>
+        <v>12.09</v>
       </c>
       <c r="K4" t="n">
-        <v>4.39</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.73</v>
+        <v>5.32</v>
       </c>
       <c r="C5" t="n">
-        <v>17.42</v>
+        <v>17.31</v>
       </c>
       <c r="D5" t="n">
-        <v>19.71</v>
+        <v>18.19</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>26.27</v>
+        <v>21.46</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52</v>
+        <v>12.42</v>
       </c>
       <c r="H5" t="n">
-        <v>25.87</v>
+        <v>22.42</v>
       </c>
       <c r="I5" t="n">
-        <v>14.8</v>
+        <v>10.88</v>
       </c>
       <c r="J5" t="n">
-        <v>7.05</v>
+        <v>8.23</v>
       </c>
       <c r="K5" t="n">
-        <v>20.44</v>
+        <v>21.65</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31.13</v>
+        <v>23.84</v>
       </c>
       <c r="C6" t="n">
-        <v>11.01</v>
+        <v>12.91</v>
       </c>
       <c r="D6" t="n">
-        <v>6.6</v>
+        <v>7.02</v>
       </c>
       <c r="E6" t="n">
-        <v>26.27</v>
+        <v>21.46</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>22</v>
+        <v>22.83</v>
       </c>
       <c r="H6" t="n">
-        <v>2.62</v>
+        <v>0.97</v>
       </c>
       <c r="I6" t="n">
-        <v>36.67</v>
+        <v>32.31</v>
       </c>
       <c r="J6" t="n">
-        <v>19.35</v>
+        <v>17.44</v>
       </c>
       <c r="K6" t="n">
-        <v>7.27</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17.01</v>
+        <v>17.69</v>
       </c>
       <c r="C7" t="n">
-        <v>17.96</v>
+        <v>11.78</v>
       </c>
       <c r="D7" t="n">
-        <v>16.66</v>
+        <v>16.48</v>
       </c>
       <c r="E7" t="n">
-        <v>11.52</v>
+        <v>12.42</v>
       </c>
       <c r="F7" t="n">
-        <v>22</v>
+        <v>22.83</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>20.51</v>
+        <v>23.58</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>17.34</v>
       </c>
       <c r="J7" t="n">
-        <v>10.71</v>
+        <v>6.61</v>
       </c>
       <c r="K7" t="n">
-        <v>14.78</v>
+        <v>19.59</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30.99</v>
+        <v>24.8</v>
       </c>
       <c r="C8" t="n">
-        <v>12.04</v>
+        <v>13.41</v>
       </c>
       <c r="D8" t="n">
-        <v>6.81</v>
+        <v>7.54</v>
       </c>
       <c r="E8" t="n">
-        <v>25.87</v>
+        <v>22.42</v>
       </c>
       <c r="F8" t="n">
-        <v>2.62</v>
+        <v>0.97</v>
       </c>
       <c r="G8" t="n">
-        <v>20.51</v>
+        <v>23.58</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>35.39</v>
+        <v>33.27</v>
       </c>
       <c r="J8" t="n">
-        <v>19.16</v>
+        <v>18.29</v>
       </c>
       <c r="K8" t="n">
-        <v>5.8</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.98</v>
+        <v>10.69</v>
       </c>
       <c r="C9" t="n">
-        <v>30.45</v>
+        <v>26.48</v>
       </c>
       <c r="D9" t="n">
-        <v>30.79</v>
+        <v>28.55</v>
       </c>
       <c r="E9" t="n">
-        <v>14.8</v>
+        <v>10.88</v>
       </c>
       <c r="F9" t="n">
-        <v>36.67</v>
+        <v>32.31</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>17.34</v>
       </c>
       <c r="H9" t="n">
-        <v>35.39</v>
+        <v>33.27</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>20.3</v>
+        <v>17.01</v>
       </c>
       <c r="K9" t="n">
-        <v>29.61</v>
+        <v>32.07</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.83</v>
+        <v>13.38</v>
       </c>
       <c r="C10" t="n">
-        <v>10.5</v>
+        <v>9.51</v>
       </c>
       <c r="D10" t="n">
-        <v>12.76</v>
+        <v>12.09</v>
       </c>
       <c r="E10" t="n">
-        <v>7.05</v>
+        <v>8.23</v>
       </c>
       <c r="F10" t="n">
-        <v>19.35</v>
+        <v>17.44</v>
       </c>
       <c r="G10" t="n">
-        <v>10.71</v>
+        <v>6.61</v>
       </c>
       <c r="H10" t="n">
-        <v>19.16</v>
+        <v>18.29</v>
       </c>
       <c r="I10" t="n">
-        <v>20.3</v>
+        <v>17.01</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.04</v>
+        <v>15.56</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.77</v>
+        <v>25.2</v>
       </c>
       <c r="C11" t="n">
-        <v>9.720000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="D11" t="n">
-        <v>4.39</v>
+        <v>3.52</v>
       </c>
       <c r="E11" t="n">
-        <v>20.44</v>
+        <v>21.65</v>
       </c>
       <c r="F11" t="n">
-        <v>7.27</v>
+        <v>6.13</v>
       </c>
       <c r="G11" t="n">
-        <v>14.78</v>
+        <v>19.59</v>
       </c>
       <c r="H11" t="n">
-        <v>5.8</v>
+        <v>6.18</v>
       </c>
       <c r="I11" t="n">
-        <v>29.61</v>
+        <v>32.07</v>
       </c>
       <c r="J11" t="n">
-        <v>14.04</v>
+        <v>15.56</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.61137420540316</v>
+        <v>7.209196150612798</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.108287153037057</v>
+        <v>-11.69572090085632</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.024525691387678</v>
+        <v>5.534470692189388</v>
       </c>
       <c r="C3" t="n">
-        <v>8.85829260856794</v>
+        <v>10.22026684970611</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.588588476272018</v>
+        <v>-0.208903564709434</v>
       </c>
       <c r="C4" t="n">
-        <v>8.386524540189162</v>
+        <v>8.908050675539148</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.120843026728586</v>
+        <v>9.095596771784336</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.462251059949286</v>
+        <v>-6.717522163331735</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-8.08201679616411</v>
+        <v>-7.065919113957376</v>
       </c>
       <c r="C6" t="n">
-        <v>13.21617932743985</v>
+        <v>7.393958129413685</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.37348069641023</v>
+        <v>15.49927752486646</v>
       </c>
       <c r="C7" t="n">
-        <v>-8.269796347404991</v>
+        <v>3.929093769051668</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-9.777191021601531</v>
+        <v>-7.705747251095942</v>
       </c>
       <c r="C8" t="n">
-        <v>11.21952918736539</v>
+        <v>8.12304344489351</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.589085184694074</v>
+        <v>17.78849768154719</v>
       </c>
       <c r="C9" t="n">
-        <v>-21.55152641963974</v>
+        <v>-13.25649832747958</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.742146546017233</v>
+        <v>9.349433251664935</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.279997346451426</v>
+        <v>1.513011281726026</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-7.266697663782839</v>
+        <v>-2.548131329168225</v>
       </c>
       <c r="C11" t="n">
-        <v>5.991332662920161</v>
+        <v>11.5363821995443</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.49</v>
+        <v>2.57</v>
       </c>
       <c r="D2" t="n">
-        <v>14.09</v>
+        <v>1.74</v>
       </c>
       <c r="E2" t="n">
-        <v>18.43</v>
+        <v>0.67</v>
       </c>
       <c r="F2" t="n">
-        <v>17.89</v>
+        <v>1.45</v>
       </c>
       <c r="G2" t="n">
-        <v>7.59</v>
+        <v>0.13</v>
       </c>
       <c r="H2" t="n">
-        <v>13.82</v>
+        <v>0.88</v>
       </c>
       <c r="I2" t="n">
-        <v>27.37</v>
+        <v>0.83</v>
       </c>
       <c r="J2" t="n">
-        <v>7.59</v>
+        <v>0.1</v>
       </c>
       <c r="K2" t="n">
-        <v>25.48</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.49</v>
+        <v>2.57</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9.210000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="E3" t="n">
-        <v>12.2</v>
+        <v>3.25</v>
       </c>
       <c r="F3" t="n">
-        <v>10.3</v>
+        <v>1.13</v>
       </c>
       <c r="G3" t="n">
-        <v>14.91</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
-        <v>11.11</v>
+        <v>1.69</v>
       </c>
       <c r="I3" t="n">
-        <v>25.75</v>
+        <v>1.74</v>
       </c>
       <c r="J3" t="n">
-        <v>8.94</v>
+        <v>2.67</v>
       </c>
       <c r="K3" t="n">
-        <v>16.26</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.09</v>
+        <v>1.74</v>
       </c>
       <c r="C4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.34</v>
+        <v>2.41</v>
       </c>
       <c r="F4" t="n">
-        <v>17.89</v>
+        <v>0.29</v>
       </c>
       <c r="G4" t="n">
-        <v>14.64</v>
+        <v>1.87</v>
       </c>
       <c r="H4" t="n">
-        <v>20.33</v>
+        <v>0.86</v>
       </c>
       <c r="I4" t="n">
-        <v>16.53</v>
+        <v>0.91</v>
       </c>
       <c r="J4" t="n">
-        <v>7.59</v>
+        <v>1.84</v>
       </c>
       <c r="K4" t="n">
-        <v>14.91</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18.43</v>
+        <v>0.67</v>
       </c>
       <c r="C5" t="n">
-        <v>12.2</v>
+        <v>3.25</v>
       </c>
       <c r="D5" t="n">
-        <v>4.34</v>
+        <v>2.41</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>18.97</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>18.97</v>
+        <v>0.54</v>
       </c>
       <c r="H5" t="n">
-        <v>23.31</v>
+        <v>1.56</v>
       </c>
       <c r="I5" t="n">
-        <v>15.45</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>11.93</v>
+        <v>0.58</v>
       </c>
       <c r="K5" t="n">
-        <v>12.2</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17.89</v>
+        <v>1.45</v>
       </c>
       <c r="C6" t="n">
-        <v>10.3</v>
+        <v>1.13</v>
       </c>
       <c r="D6" t="n">
-        <v>17.89</v>
+        <v>0.29</v>
       </c>
       <c r="E6" t="n">
-        <v>18.97</v>
+        <v>2.12</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>24.66</v>
+        <v>1.58</v>
       </c>
       <c r="H6" t="n">
-        <v>8.67</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>34.15</v>
+        <v>0.62</v>
       </c>
       <c r="J6" t="n">
-        <v>19.24</v>
+        <v>1.54</v>
       </c>
       <c r="K6" t="n">
-        <v>15.45</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.59</v>
+        <v>0.13</v>
       </c>
       <c r="C7" t="n">
-        <v>14.91</v>
+        <v>2.7</v>
       </c>
       <c r="D7" t="n">
-        <v>14.64</v>
+        <v>1.87</v>
       </c>
       <c r="E7" t="n">
-        <v>18.97</v>
+        <v>0.54</v>
       </c>
       <c r="F7" t="n">
-        <v>24.66</v>
+        <v>1.58</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>21.41</v>
+        <v>1.01</v>
       </c>
       <c r="I7" t="n">
-        <v>23.04</v>
+        <v>0.96</v>
       </c>
       <c r="J7" t="n">
-        <v>7.32</v>
+        <v>0.03</v>
       </c>
       <c r="K7" t="n">
-        <v>28.73</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.82</v>
+        <v>0.88</v>
       </c>
       <c r="C8" t="n">
-        <v>11.11</v>
+        <v>1.69</v>
       </c>
       <c r="D8" t="n">
-        <v>20.33</v>
+        <v>0.86</v>
       </c>
       <c r="E8" t="n">
-        <v>23.31</v>
+        <v>1.56</v>
       </c>
       <c r="F8" t="n">
-        <v>8.67</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>21.41</v>
+        <v>1.01</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>36.86</v>
+        <v>0.05</v>
       </c>
       <c r="J8" t="n">
-        <v>18.43</v>
+        <v>0.98</v>
       </c>
       <c r="K8" t="n">
-        <v>23.31</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.37</v>
+        <v>0.83</v>
       </c>
       <c r="C9" t="n">
-        <v>25.75</v>
+        <v>1.74</v>
       </c>
       <c r="D9" t="n">
-        <v>16.53</v>
+        <v>0.91</v>
       </c>
       <c r="E9" t="n">
-        <v>15.45</v>
+        <v>1.5</v>
       </c>
       <c r="F9" t="n">
-        <v>34.15</v>
+        <v>0.62</v>
       </c>
       <c r="G9" t="n">
-        <v>23.04</v>
+        <v>0.96</v>
       </c>
       <c r="H9" t="n">
-        <v>36.86</v>
+        <v>0.05</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>19.78</v>
+        <v>0.93</v>
       </c>
       <c r="K9" t="n">
-        <v>26.02</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.59</v>
+        <v>0.1</v>
       </c>
       <c r="C10" t="n">
-        <v>8.94</v>
+        <v>2.67</v>
       </c>
       <c r="D10" t="n">
-        <v>7.59</v>
+        <v>1.84</v>
       </c>
       <c r="E10" t="n">
-        <v>11.93</v>
+        <v>0.58</v>
       </c>
       <c r="F10" t="n">
-        <v>19.24</v>
+        <v>1.54</v>
       </c>
       <c r="G10" t="n">
-        <v>7.32</v>
+        <v>0.03</v>
       </c>
       <c r="H10" t="n">
-        <v>18.43</v>
+        <v>0.98</v>
       </c>
       <c r="I10" t="n">
-        <v>19.78</v>
+        <v>0.93</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>21.41</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.48</v>
+        <v>2.31</v>
       </c>
       <c r="C11" t="n">
-        <v>16.26</v>
+        <v>0.26</v>
       </c>
       <c r="D11" t="n">
-        <v>14.91</v>
+        <v>0.57</v>
       </c>
       <c r="E11" t="n">
-        <v>12.2</v>
+        <v>2.99</v>
       </c>
       <c r="F11" t="n">
-        <v>15.45</v>
+        <v>0.87</v>
       </c>
       <c r="G11" t="n">
-        <v>28.73</v>
+        <v>2.44</v>
       </c>
       <c r="H11" t="n">
-        <v>23.31</v>
+        <v>1.43</v>
       </c>
       <c r="I11" t="n">
-        <v>26.02</v>
+        <v>1.48</v>
       </c>
       <c r="J11" t="n">
-        <v>21.41</v>
+        <v>2.41</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3590686253333837</v>
+        <v>-0.6357481879092455</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1402033450793016</v>
+        <v>-0.6358176395244789</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.007792292934017688</v>
+        <v>1.183707753390518</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1705641911034028</v>
+        <v>1.183361376672807</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06985386687834141</v>
+        <v>0.5951985798227559</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1610066769227147</v>
+        <v>0.5950875702258497</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2154185981328968</v>
+        <v>-1.112348983674549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2226352909295296</v>
+        <v>-1.112247486893431</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2071430545279104</v>
+        <v>0.386685947648035</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4814024940245253</v>
+        <v>0.3867192474823199</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.473076845636354</v>
+        <v>-0.7272696909977164</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1184438759272629</v>
+        <v>-0.7271033208749769</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.09598791534668573</v>
+        <v>-0.01268585237047335</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5755469771563838</v>
+        <v>-0.01259023217078489</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07301804066619819</v>
+        <v>-0.04890278758541062</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7725900269736856</v>
+        <v>-0.04892851441598398</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.203200273092065</v>
+        <v>-0.7057155885802179</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09689655184682844</v>
+        <v>-0.7056763036007319</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5768898140901231</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.04438158529293457</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>27.9</v>
+        <v>21.38</v>
       </c>
       <c r="D2" t="n">
-        <v>26.84</v>
+        <v>24.53</v>
       </c>
       <c r="E2" t="n">
-        <v>3.85</v>
+        <v>5.73</v>
       </c>
       <c r="F2" t="n">
-        <v>23.68</v>
+        <v>31.13</v>
       </c>
       <c r="G2" t="n">
-        <v>13.52</v>
+        <v>17.01</v>
       </c>
       <c r="H2" t="n">
-        <v>24.63</v>
+        <v>30.99</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04</v>
+        <v>15.98</v>
       </c>
       <c r="J2" t="n">
-        <v>13.8</v>
+        <v>11.83</v>
       </c>
       <c r="K2" t="n">
-        <v>22.34</v>
+        <v>25.77</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.9</v>
+        <v>21.38</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.49</v>
+        <v>5.63</v>
       </c>
       <c r="E3" t="n">
-        <v>25.46</v>
+        <v>17.42</v>
       </c>
       <c r="F3" t="n">
-        <v>7.59</v>
+        <v>11.01</v>
       </c>
       <c r="G3" t="n">
-        <v>23.51</v>
+        <v>17.96</v>
       </c>
       <c r="H3" t="n">
-        <v>8.220000000000001</v>
+        <v>12.04</v>
       </c>
       <c r="I3" t="n">
-        <v>23.82</v>
+        <v>30.45</v>
       </c>
       <c r="J3" t="n">
-        <v>14.14</v>
+        <v>10.5</v>
       </c>
       <c r="K3" t="n">
-        <v>5.58</v>
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26.84</v>
+        <v>24.53</v>
       </c>
       <c r="C4" t="n">
-        <v>3.49</v>
+        <v>5.63</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.05</v>
+        <v>19.71</v>
       </c>
       <c r="F4" t="n">
-        <v>4.45</v>
+        <v>6.6</v>
       </c>
       <c r="G4" t="n">
-        <v>20.95</v>
+        <v>16.66</v>
       </c>
       <c r="H4" t="n">
-        <v>4.83</v>
+        <v>6.81</v>
       </c>
       <c r="I4" t="n">
-        <v>21.54</v>
+        <v>30.79</v>
       </c>
       <c r="J4" t="n">
-        <v>13.1</v>
+        <v>12.76</v>
       </c>
       <c r="K4" t="n">
-        <v>5.14</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.85</v>
+        <v>5.73</v>
       </c>
       <c r="C5" t="n">
-        <v>25.46</v>
+        <v>17.42</v>
       </c>
       <c r="D5" t="n">
-        <v>24.05</v>
+        <v>19.71</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>20.57</v>
+        <v>26.27</v>
       </c>
       <c r="G5" t="n">
-        <v>9.74</v>
+        <v>11.52</v>
       </c>
       <c r="H5" t="n">
-        <v>21.43</v>
+        <v>25.87</v>
       </c>
       <c r="I5" t="n">
-        <v>7.28</v>
+        <v>14.8</v>
       </c>
       <c r="J5" t="n">
-        <v>11.38</v>
+        <v>7.05</v>
       </c>
       <c r="K5" t="n">
-        <v>19.88</v>
+        <v>20.44</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.68</v>
+        <v>31.13</v>
       </c>
       <c r="C6" t="n">
-        <v>7.59</v>
+        <v>11.01</v>
       </c>
       <c r="D6" t="n">
-        <v>4.45</v>
+        <v>6.6</v>
       </c>
       <c r="E6" t="n">
-        <v>20.57</v>
+        <v>26.27</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>16.62</v>
+        <v>22</v>
       </c>
       <c r="H6" t="n">
-        <v>1.41</v>
+        <v>2.62</v>
       </c>
       <c r="I6" t="n">
-        <v>17.36</v>
+        <v>36.67</v>
       </c>
       <c r="J6" t="n">
-        <v>10.47</v>
+        <v>19.35</v>
       </c>
       <c r="K6" t="n">
-        <v>5.35</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.52</v>
+        <v>17.01</v>
       </c>
       <c r="C7" t="n">
-        <v>23.51</v>
+        <v>17.96</v>
       </c>
       <c r="D7" t="n">
-        <v>20.95</v>
+        <v>16.66</v>
       </c>
       <c r="E7" t="n">
-        <v>9.74</v>
+        <v>11.52</v>
       </c>
       <c r="F7" t="n">
-        <v>16.62</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>16.86</v>
+        <v>20.51</v>
       </c>
       <c r="I7" t="n">
-        <v>2.47</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>12.43</v>
+        <v>10.71</v>
       </c>
       <c r="K7" t="n">
-        <v>18.57</v>
+        <v>14.78</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.63</v>
+        <v>30.99</v>
       </c>
       <c r="C8" t="n">
-        <v>8.220000000000001</v>
+        <v>12.04</v>
       </c>
       <c r="D8" t="n">
-        <v>4.83</v>
+        <v>6.81</v>
       </c>
       <c r="E8" t="n">
-        <v>21.43</v>
+        <v>25.87</v>
       </c>
       <c r="F8" t="n">
-        <v>1.41</v>
+        <v>2.62</v>
       </c>
       <c r="G8" t="n">
-        <v>16.86</v>
+        <v>20.51</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>17.79</v>
+        <v>35.39</v>
       </c>
       <c r="J8" t="n">
-        <v>11.67</v>
+        <v>19.16</v>
       </c>
       <c r="K8" t="n">
-        <v>6.69</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.04</v>
+        <v>15.98</v>
       </c>
       <c r="C9" t="n">
-        <v>23.82</v>
+        <v>30.45</v>
       </c>
       <c r="D9" t="n">
-        <v>21.54</v>
+        <v>30.79</v>
       </c>
       <c r="E9" t="n">
-        <v>7.28</v>
+        <v>14.8</v>
       </c>
       <c r="F9" t="n">
-        <v>17.36</v>
+        <v>36.67</v>
       </c>
       <c r="G9" t="n">
-        <v>2.47</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>17.79</v>
+        <v>35.39</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>11.58</v>
+        <v>20.3</v>
       </c>
       <c r="K9" t="n">
-        <v>18.61</v>
+        <v>29.61</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.8</v>
+        <v>11.83</v>
       </c>
       <c r="C10" t="n">
-        <v>14.14</v>
+        <v>10.5</v>
       </c>
       <c r="D10" t="n">
-        <v>13.1</v>
+        <v>12.76</v>
       </c>
       <c r="E10" t="n">
-        <v>11.38</v>
+        <v>7.05</v>
       </c>
       <c r="F10" t="n">
-        <v>10.47</v>
+        <v>19.35</v>
       </c>
       <c r="G10" t="n">
-        <v>12.43</v>
+        <v>10.71</v>
       </c>
       <c r="H10" t="n">
-        <v>11.67</v>
+        <v>19.16</v>
       </c>
       <c r="I10" t="n">
-        <v>11.58</v>
+        <v>20.3</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>8.56</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.34</v>
+        <v>25.77</v>
       </c>
       <c r="C11" t="n">
-        <v>5.58</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>5.14</v>
+        <v>4.39</v>
       </c>
       <c r="E11" t="n">
-        <v>19.88</v>
+        <v>20.44</v>
       </c>
       <c r="F11" t="n">
-        <v>5.35</v>
+        <v>7.27</v>
       </c>
       <c r="G11" t="n">
-        <v>18.57</v>
+        <v>14.78</v>
       </c>
       <c r="H11" t="n">
-        <v>6.69</v>
+        <v>5.8</v>
       </c>
       <c r="I11" t="n">
-        <v>18.61</v>
+        <v>29.61</v>
       </c>
       <c r="J11" t="n">
-        <v>8.56</v>
+        <v>14.04</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.260823676098068</v>
+        <v>1.00286603559453</v>
       </c>
       <c r="C2" t="n">
-        <v>-15.0220190030656</v>
+        <v>16.34700774870989</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.59211418869321</v>
+        <v>8.273391561783997</v>
       </c>
       <c r="C3" t="n">
-        <v>7.935493092136478</v>
+        <v>-3.757531673763213</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.196388392632005</v>
+        <v>4.496647873230414</v>
       </c>
       <c r="C4" t="n">
-        <v>8.750191205242995</v>
+        <v>-7.93674486293339</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-6.123310450240257</v>
+        <v>-1.014931805607591</v>
       </c>
       <c r="C5" t="n">
-        <v>-11.26853890886028</v>
+        <v>10.98194863293994</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.04638286608537</v>
+        <v>5.615571765570491</v>
       </c>
       <c r="C6" t="n">
-        <v>7.14957490536001</v>
+        <v>-14.43785805631381</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-10.4525872528745</v>
+        <v>-8.622703534464433</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.54381427326857</v>
+        <v>2.327850380356034</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.382880870321471</v>
+        <v>3.000034187441661</v>
       </c>
       <c r="C8" t="n">
-        <v>8.395857140757048</v>
+        <v>-14.57638824720476</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-9.518044743298097</v>
+        <v>-14.96878991149849</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.832196449881616</v>
+        <v>15.91493487466495</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.957736057097154</v>
+        <v>1.855462947817347</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.261761018114526</v>
+        <v>4.547923077634098</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.064258631893219</v>
+        <v>0.3624508801320704</v>
       </c>
       <c r="C11" t="n">
-        <v>3.61349081715573</v>
+        <v>-9.411141874089743</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.000179290771484375</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002739429473876953</v>
+        <v>25.13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3357124328613281</v>
+        <v>22.73</v>
       </c>
       <c r="E2" t="n">
-        <v>1.034040689468384</v>
+        <v>4.01</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1384718418121338</v>
+        <v>24.33</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03849267959594727</v>
+        <v>15.51</v>
       </c>
       <c r="H2" t="n">
-        <v>1.274875402450562</v>
+        <v>16.85</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="K2" t="n">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="I3" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>28.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="I4" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="H5" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="E6" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="I6" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="K6" t="n">
+        <v>19.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="I7" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="K7" t="n">
+        <v>22.46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="E8" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="K8" t="n">
+        <v>28.34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="C9" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="H9" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="K9" t="n">
+        <v>24.87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="I10" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>18.98</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17.91</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="D11" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="G11" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="H11" t="n">
+        <v>28.34</v>
+      </c>
+      <c r="I11" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="J11" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.2271659466710478</v>
       </c>
       <c r="C2" t="n">
-        <v>20.23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.294642857142857</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.391111111111111</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2115172681462733</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.000179290771484375</v>
+        <v>0.3673139951054205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>-0.4372059490953782</v>
       </c>
       <c r="C3" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.924512987012987</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.656888888888889</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.169834295440048</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0002739429473876953</v>
+        <v>-0.3003875782451695</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>-0.2057694604887905</v>
       </c>
       <c r="C4" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8160919540229886</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.716444444444444</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2251587730442995</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3357124328613281</v>
+        <v>-0.361155570303276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0.2830528455335012</v>
       </c>
       <c r="C5" t="n">
-        <v>37.43</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.998665955176094</v>
-      </c>
-      <c r="E5" t="n">
-        <v>15.70444444444444</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8973203265839023</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.034040689468384</v>
+        <v>0.2331403544227129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>-0.01672631917274586</v>
       </c>
       <c r="C6" t="n">
-        <v>6.340000000000002</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.201680672268908</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.796888888888889</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1718216310289615</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1384718418121338</v>
+        <v>-0.5126396260276115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>-0.2005507386425183</v>
       </c>
       <c r="C7" t="n">
-        <v>17.84</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.285714285714286</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6.512222222222222</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7724845275848355</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.03849267959594727</v>
+        <v>-0.0290257962500498</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>-0.3745419987893972</v>
       </c>
       <c r="C8" t="n">
-        <v>19.69</v>
+        <v>0.1765449553893284</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.2651922411032359</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6895363287296412</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.06994960618721675</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.0705531822194353</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6329051573022141</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.1605177860320476</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="H2" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="I2" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="G4" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K5" t="n">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I6" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="J6" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F7" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8308219178082191</v>
+        <v>6.05</v>
       </c>
       <c r="E8" t="n">
-        <v>5.251333333333335</v>
+        <v>21.89</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3027130426930947</v>
+        <v>1.08</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>20.62</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.274875402450562</v>
+        <v>31.71</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="E9" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="H9" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="K9" t="n">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-7.035005488530428</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-12.99737858275337</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.60988377786341</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.04680374591433</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.288617998199543</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.542685686199608</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-3.690976874222291</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-10.28972747576628</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.64815191346998</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.699772432760108</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-6.498500471120726</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.730286818007062</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13.05492391513752</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.802689891926532</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-18.55451084372841</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.227961970600348</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.08374884619492479</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.5131477107940552</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.518338929250459</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.857912259707248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F2" t="n">
+        <v>23.67</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J2" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="F3" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="H3" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="I3" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="K5" t="n">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>23.67</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I6" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="C8" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="J8" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="H9" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="K9" t="n">
+        <v>21.13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="F10" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="H10" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="I10" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="E11" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="J11" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.3755920220853288</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1697560965201572</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1564407948393</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.4696046698928434</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2723891186778049</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.3081753119580882</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.3402259326571581</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2257515090613569</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4305375088382631</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3964033724955117</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.1875613708845924</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.09593004076178346</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3828385138441891</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3548738318138439</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.4090935346354347</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.266606378548479</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1967867947291703</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.4886305170462139</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2670537187943858</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.05105064878069677</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23.55</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.65</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="F2" t="n">
+        <v>31.04</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="J2" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>25.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>23.55</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>26.65</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32.83</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="H5" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>22.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>31.04</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="E6" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I6" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="J6" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20.69</v>
+      </c>
+      <c r="I7" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E8" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20.69</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>34.24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="D9" t="n">
+        <v>32.83</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="G9" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="H9" t="n">
+        <v>34.24</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="K9" t="n">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="H10" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="I10" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>16.94</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="I11" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="J11" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>33.32925258485666</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.06927112102039221</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-16.52934788270668</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-7.551495108780286</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-23.7203789127946</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.62516010274683</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>24.97361894185351</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-8.956631126155669</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-32.58334724189024</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.799842279151184</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12.77061559378781</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.625328934215766</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-29.30366626958374</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.288530405604586</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>43.01645066995082</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20.50687972980365</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9.041601820243846</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-17.13365517480936</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-20.99479930371733</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.227746911128095</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0003461837768554688</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002591609954833984</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002896785736083984</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.53554630279541</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.739378929138184</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3984444141387939</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1035745143890381</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.761572122573853</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01376795768737793</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.009574651718139648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>21.25</v>
+        <v>22.58</v>
       </c>
       <c r="D2" t="n">
-        <v>22.78</v>
+        <v>22.45</v>
       </c>
       <c r="E2" t="n">
-        <v>4.07</v>
+        <v>4.74</v>
       </c>
       <c r="F2" t="n">
-        <v>27.87</v>
+        <v>25.09</v>
       </c>
       <c r="G2" t="n">
-        <v>28.27</v>
+        <v>7.76</v>
       </c>
       <c r="H2" t="n">
-        <v>26.24</v>
+        <v>26.09</v>
       </c>
       <c r="I2" t="n">
-        <v>10.65</v>
+        <v>20.93</v>
       </c>
       <c r="J2" t="n">
-        <v>16.53</v>
+        <v>12.16</v>
       </c>
       <c r="K2" t="n">
-        <v>22.44</v>
+        <v>21.31</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.43</v>
+        <v>22.58</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.89</v>
+        <v>4.58</v>
       </c>
       <c r="E3" t="n">
-        <v>19.09</v>
+        <v>20.77</v>
       </c>
       <c r="F3" t="n">
-        <v>14.63</v>
+        <v>8.93</v>
       </c>
       <c r="G3" t="n">
-        <v>14.41</v>
+        <v>15.35</v>
       </c>
       <c r="H3" t="n">
-        <v>17.2</v>
+        <v>10.17</v>
       </c>
       <c r="I3" t="n">
-        <v>25.8</v>
+        <v>16.22</v>
       </c>
       <c r="J3" t="n">
-        <v>9.59</v>
+        <v>11.56</v>
       </c>
       <c r="K3" t="n">
-        <v>8.91</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="4">
@@ -5411,10 +7580,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.92</v>
+        <v>22.45</v>
       </c>
       <c r="C4" t="n">
-        <v>4.47</v>
+        <v>4.58</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -5423,22 +7592,22 @@
         <v>19.75</v>
       </c>
       <c r="F4" t="n">
-        <v>6.14</v>
+        <v>4.59</v>
       </c>
       <c r="G4" t="n">
-        <v>15.84</v>
+        <v>16.12</v>
       </c>
       <c r="H4" t="n">
-        <v>5.97</v>
+        <v>5.9</v>
       </c>
       <c r="I4" t="n">
-        <v>25.6</v>
+        <v>20.16</v>
       </c>
       <c r="J4" t="n">
-        <v>12.62</v>
+        <v>10.42</v>
       </c>
       <c r="K4" t="n">
-        <v>4.88</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.02</v>
+        <v>4.74</v>
       </c>
       <c r="C5" t="n">
-        <v>30.15</v>
+        <v>20.77</v>
       </c>
       <c r="D5" t="n">
-        <v>23.11</v>
+        <v>19.75</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.4</v>
+        <v>21.74</v>
       </c>
       <c r="G5" t="n">
-        <v>9.31</v>
+        <v>8.32</v>
       </c>
       <c r="H5" t="n">
-        <v>17.19</v>
+        <v>22.62</v>
       </c>
       <c r="I5" t="n">
-        <v>17.58</v>
+        <v>22.65</v>
       </c>
       <c r="J5" t="n">
-        <v>5.53</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>24.88</v>
+        <v>17.49</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.09</v>
+        <v>25.09</v>
       </c>
       <c r="C6" t="n">
-        <v>10.46</v>
+        <v>8.93</v>
       </c>
       <c r="D6" t="n">
-        <v>5.16</v>
+        <v>4.59</v>
       </c>
       <c r="E6" t="n">
-        <v>26.51</v>
+        <v>21.74</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>24.08</v>
+        <v>19.59</v>
       </c>
       <c r="H6" t="n">
-        <v>1.09</v>
+        <v>1.32</v>
       </c>
       <c r="I6" t="n">
-        <v>48.33</v>
+        <v>24.75</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61</v>
+        <v>12.97</v>
       </c>
       <c r="K6" t="n">
-        <v>7.51</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.15</v>
+        <v>7.76</v>
       </c>
       <c r="C7" t="n">
-        <v>15.54</v>
+        <v>15.35</v>
       </c>
       <c r="D7" t="n">
-        <v>20.78</v>
+        <v>16.12</v>
       </c>
       <c r="E7" t="n">
-        <v>6.86</v>
+        <v>8.32</v>
       </c>
       <c r="F7" t="n">
-        <v>19.99</v>
+        <v>19.59</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>23.18</v>
+        <v>20.77</v>
       </c>
       <c r="I7" t="n">
-        <v>15.19</v>
+        <v>14.36</v>
       </c>
       <c r="J7" t="n">
-        <v>7.95</v>
+        <v>7.3</v>
       </c>
       <c r="K7" t="n">
-        <v>19.62</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>46.05</v>
+        <v>26.09</v>
       </c>
       <c r="C8" t="n">
-        <v>11.6</v>
+        <v>10.17</v>
       </c>
       <c r="D8" t="n">
-        <v>8.06</v>
+        <v>5.9</v>
       </c>
       <c r="E8" t="n">
-        <v>22.75</v>
+        <v>22.62</v>
       </c>
       <c r="F8" t="n">
-        <v>1.08</v>
+        <v>1.32</v>
       </c>
       <c r="G8" t="n">
-        <v>16.22</v>
+        <v>20.77</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>33.37</v>
+        <v>26.05</v>
       </c>
       <c r="J8" t="n">
-        <v>17.46</v>
+        <v>14.03</v>
       </c>
       <c r="K8" t="n">
-        <v>8.779999999999999</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.46</v>
+        <v>20.93</v>
       </c>
       <c r="C9" t="n">
-        <v>40.95</v>
+        <v>16.22</v>
       </c>
       <c r="D9" t="n">
-        <v>25.99</v>
+        <v>20.16</v>
       </c>
       <c r="E9" t="n">
-        <v>21.65</v>
+        <v>22.65</v>
       </c>
       <c r="F9" t="n">
-        <v>37.47</v>
+        <v>24.75</v>
       </c>
       <c r="G9" t="n">
-        <v>13.85</v>
+        <v>14.36</v>
       </c>
       <c r="H9" t="n">
-        <v>36.24</v>
+        <v>26.05</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>26.24</v>
+        <v>18.4</v>
       </c>
       <c r="K9" t="n">
-        <v>15.08</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8.710000000000001</v>
+        <v>12.16</v>
       </c>
       <c r="C10" t="n">
-        <v>4.53</v>
+        <v>11.56</v>
       </c>
       <c r="D10" t="n">
-        <v>10.21</v>
+        <v>10.42</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>21.86</v>
+        <v>12.97</v>
       </c>
       <c r="G10" t="n">
-        <v>11.08</v>
+        <v>7.3</v>
       </c>
       <c r="H10" t="n">
-        <v>20.37</v>
+        <v>14.03</v>
       </c>
       <c r="I10" t="n">
-        <v>13.67</v>
+        <v>18.4</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>24.08</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.09</v>
+        <v>21.31</v>
       </c>
       <c r="C11" t="n">
-        <v>9.859999999999999</v>
+        <v>11.21</v>
       </c>
       <c r="D11" t="n">
-        <v>5.12</v>
+        <v>6.84</v>
       </c>
       <c r="E11" t="n">
-        <v>19.7</v>
+        <v>17.49</v>
       </c>
       <c r="F11" t="n">
-        <v>5.57</v>
+        <v>5.15</v>
       </c>
       <c r="G11" t="n">
-        <v>17.22</v>
+        <v>16.98</v>
       </c>
       <c r="H11" t="n">
-        <v>7.61</v>
+        <v>5.53</v>
       </c>
       <c r="I11" t="n">
-        <v>48.33</v>
+        <v>25.12</v>
       </c>
       <c r="J11" t="n">
-        <v>11.02</v>
+        <v>9.75</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-8.56692070705474</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.682031957650615</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13.08439943289218</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13.07712392695078</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13.80374633833786</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.553505685232349</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-5.240020408542435</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.309006507918395</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16.45160098837797</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.803463456965741</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-2.129153749968549</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.02196807503545</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>17.37217084521567</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.859736459650152</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.88732018474286</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24.81109294201057</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.590709579227413</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.488675105642259</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12.19646437174652</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.903797120004187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.294642857142857</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.391111111111111</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2115172681462733</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.000179290771484375</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.924512987012987</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.656888888888889</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.169834295440048</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0002739429473876953</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8160919540229886</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.716444444444444</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2251587730442995</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3357124328613281</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.998665955176094</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15.70444444444444</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8973203265839023</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.034040689468384</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6.340000000000002</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.201680672268908</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.796888888888889</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1718216310289615</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1384718418121338</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.285714285714286</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.512222222222222</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7724845275848355</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.03849267959594727</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19.69</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8308219178082191</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.251333333333335</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3027130426930947</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.274875402450562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>20.84</v>
+        <v>21.25</v>
       </c>
       <c r="D2" t="n">
-        <v>27.85</v>
+        <v>22.78</v>
       </c>
       <c r="E2" t="n">
-        <v>3.545</v>
+        <v>4.07</v>
       </c>
       <c r="F2" t="n">
-        <v>24.98</v>
+        <v>27.87</v>
       </c>
       <c r="G2" t="n">
-        <v>23.71</v>
+        <v>28.27</v>
       </c>
       <c r="H2" t="n">
-        <v>36.145</v>
+        <v>26.24</v>
       </c>
       <c r="I2" t="n">
-        <v>13.055</v>
+        <v>10.65</v>
       </c>
       <c r="J2" t="n">
-        <v>12.62</v>
+        <v>16.53</v>
       </c>
       <c r="K2" t="n">
-        <v>22.765</v>
+        <v>22.44</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.84</v>
+        <v>20.43</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.68</v>
+        <v>4.89</v>
       </c>
       <c r="E3" t="n">
-        <v>24.62</v>
+        <v>19.09</v>
       </c>
       <c r="F3" t="n">
-        <v>12.545</v>
+        <v>14.63</v>
       </c>
       <c r="G3" t="n">
-        <v>14.975</v>
+        <v>14.41</v>
       </c>
       <c r="H3" t="n">
-        <v>14.4</v>
+        <v>17.2</v>
       </c>
       <c r="I3" t="n">
-        <v>33.375</v>
+        <v>25.8</v>
       </c>
       <c r="J3" t="n">
-        <v>7.06</v>
+        <v>9.59</v>
       </c>
       <c r="K3" t="n">
-        <v>9.385</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.85</v>
+        <v>32.92</v>
       </c>
       <c r="C4" t="n">
-        <v>4.68</v>
+        <v>4.47</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>21.43</v>
+        <v>19.75</v>
       </c>
       <c r="F4" t="n">
-        <v>5.65</v>
+        <v>6.14</v>
       </c>
       <c r="G4" t="n">
-        <v>18.31</v>
+        <v>15.84</v>
       </c>
       <c r="H4" t="n">
-        <v>7.015000000000001</v>
+        <v>5.97</v>
       </c>
       <c r="I4" t="n">
-        <v>25.795</v>
+        <v>25.6</v>
       </c>
       <c r="J4" t="n">
-        <v>11.415</v>
+        <v>12.62</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.545</v>
+        <v>3.02</v>
       </c>
       <c r="C5" t="n">
-        <v>24.62</v>
+        <v>30.15</v>
       </c>
       <c r="D5" t="n">
-        <v>21.43</v>
+        <v>23.11</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.955</v>
+        <v>25.4</v>
       </c>
       <c r="G5" t="n">
-        <v>8.085000000000001</v>
+        <v>9.31</v>
       </c>
       <c r="H5" t="n">
-        <v>19.97</v>
+        <v>17.19</v>
       </c>
       <c r="I5" t="n">
-        <v>19.615</v>
+        <v>17.58</v>
       </c>
       <c r="J5" t="n">
-        <v>6.765000000000001</v>
+        <v>5.53</v>
       </c>
       <c r="K5" t="n">
-        <v>22.29</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.98</v>
+        <v>22.09</v>
       </c>
       <c r="C6" t="n">
-        <v>12.545</v>
+        <v>10.46</v>
       </c>
       <c r="D6" t="n">
-        <v>5.65</v>
+        <v>5.16</v>
       </c>
       <c r="E6" t="n">
-        <v>25.955</v>
+        <v>26.51</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>22.035</v>
+        <v>24.08</v>
       </c>
       <c r="H6" t="n">
-        <v>1.085</v>
+        <v>1.09</v>
       </c>
       <c r="I6" t="n">
-        <v>42.9</v>
+        <v>48.33</v>
       </c>
       <c r="J6" t="n">
-        <v>21.235</v>
+        <v>20.61</v>
       </c>
       <c r="K6" t="n">
-        <v>6.54</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.71</v>
+        <v>19.15</v>
       </c>
       <c r="C7" t="n">
-        <v>14.975</v>
+        <v>15.54</v>
       </c>
       <c r="D7" t="n">
-        <v>18.31</v>
+        <v>20.78</v>
       </c>
       <c r="E7" t="n">
-        <v>8.085000000000001</v>
+        <v>6.86</v>
       </c>
       <c r="F7" t="n">
-        <v>22.035</v>
+        <v>19.99</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>19.7</v>
+        <v>23.18</v>
       </c>
       <c r="I7" t="n">
-        <v>14.52</v>
+        <v>15.19</v>
       </c>
       <c r="J7" t="n">
-        <v>9.515000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="K7" t="n">
-        <v>18.42</v>
+        <v>19.62</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>36.145</v>
+        <v>46.05</v>
       </c>
       <c r="C8" t="n">
-        <v>14.4</v>
+        <v>11.6</v>
       </c>
       <c r="D8" t="n">
-        <v>7.015000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="E8" t="n">
-        <v>19.97</v>
+        <v>22.75</v>
       </c>
       <c r="F8" t="n">
-        <v>1.085</v>
+        <v>1.08</v>
       </c>
       <c r="G8" t="n">
-        <v>19.7</v>
+        <v>16.22</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.805</v>
+        <v>33.37</v>
       </c>
       <c r="J8" t="n">
-        <v>18.915</v>
+        <v>17.46</v>
       </c>
       <c r="K8" t="n">
-        <v>8.195</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.055</v>
+        <v>15.46</v>
       </c>
       <c r="C9" t="n">
-        <v>33.375</v>
+        <v>40.95</v>
       </c>
       <c r="D9" t="n">
-        <v>25.795</v>
+        <v>25.99</v>
       </c>
       <c r="E9" t="n">
-        <v>19.615</v>
+        <v>21.65</v>
       </c>
       <c r="F9" t="n">
-        <v>42.9</v>
+        <v>37.47</v>
       </c>
       <c r="G9" t="n">
-        <v>14.52</v>
+        <v>13.85</v>
       </c>
       <c r="H9" t="n">
-        <v>34.805</v>
+        <v>36.24</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>19.955</v>
+        <v>26.24</v>
       </c>
       <c r="K9" t="n">
-        <v>31.705</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.62</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>7.06</v>
+        <v>4.53</v>
       </c>
       <c r="D10" t="n">
-        <v>11.415</v>
+        <v>10.21</v>
       </c>
       <c r="E10" t="n">
-        <v>6.765000000000001</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>21.235</v>
+        <v>21.86</v>
       </c>
       <c r="G10" t="n">
-        <v>9.515000000000001</v>
+        <v>11.08</v>
       </c>
       <c r="H10" t="n">
-        <v>18.915</v>
+        <v>20.37</v>
       </c>
       <c r="I10" t="n">
-        <v>19.955</v>
+        <v>13.67</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>17.55</v>
+        <v>24.08</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.765</v>
+        <v>23.09</v>
       </c>
       <c r="C11" t="n">
-        <v>9.385</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>5.12</v>
       </c>
       <c r="E11" t="n">
-        <v>22.29</v>
+        <v>19.7</v>
       </c>
       <c r="F11" t="n">
-        <v>6.54</v>
+        <v>5.57</v>
       </c>
       <c r="G11" t="n">
-        <v>18.42</v>
+        <v>17.22</v>
       </c>
       <c r="H11" t="n">
-        <v>8.195</v>
+        <v>7.61</v>
       </c>
       <c r="I11" t="n">
-        <v>31.705</v>
+        <v>48.33</v>
       </c>
       <c r="J11" t="n">
-        <v>17.55</v>
+        <v>11.02</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.45</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="F2" t="n">
-        <v>25.09</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="H2" t="n">
-        <v>26.09</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20.93</v>
-      </c>
-      <c r="J2" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="K2" t="n">
-        <v>21.31</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20.77</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="G3" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="I3" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="J3" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11.21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>22.45</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="G4" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6.84</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="C5" t="n">
-        <v>20.77</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>21.74</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="H5" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="I5" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="K5" t="n">
-        <v>17.49</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>25.09</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="E6" t="n">
-        <v>21.74</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>19.59</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="D7" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="F7" t="n">
-        <v>19.59</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>20.77</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>16.98</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>26.09</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E8" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="G8" t="n">
-        <v>20.77</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="J8" t="n">
-        <v>14.03</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.53</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>20.93</v>
-      </c>
-      <c r="C9" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="D9" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="E9" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="F9" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="G9" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="H9" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>25.12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="C10" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="F10" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>14.03</v>
-      </c>
-      <c r="I10" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>21.31</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="E11" t="n">
-        <v>17.49</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="G11" t="n">
-        <v>16.98</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="I11" t="n">
-        <v>25.12</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-8.56692070705474</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6.682031957650615</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>13.08439943289218</v>
-      </c>
-      <c r="C3" t="n">
-        <v>13.07712392695078</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>13.80374633833786</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.553505685232349</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-5.240020408542435</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.309006507918395</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>16.45160098837797</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4.803463456965741</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-2.129153749968549</v>
-      </c>
-      <c r="C7" t="n">
-        <v>11.02196807503545</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>17.37217084521567</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.859736459650152</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.88732018474286</v>
-      </c>
-      <c r="C9" t="n">
-        <v>24.81109294201057</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3.590709579227413</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6.488675105642259</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>12.19646437174652</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.903797120004187</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.57</v>
+        <v>20.84</v>
       </c>
       <c r="D2" t="n">
-        <v>1.74</v>
+        <v>27.39</v>
       </c>
       <c r="E2" t="n">
-        <v>0.67</v>
+        <v>3.51</v>
       </c>
       <c r="F2" t="n">
-        <v>1.45</v>
+        <v>24.81</v>
       </c>
       <c r="G2" t="n">
-        <v>0.13</v>
+        <v>23.27</v>
       </c>
       <c r="H2" t="n">
-        <v>0.88</v>
+        <v>34.76</v>
       </c>
       <c r="I2" t="n">
-        <v>0.83</v>
+        <v>12.83</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1</v>
+        <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>2.31</v>
+        <v>22.76</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.57</v>
+        <v>20.84</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.83</v>
+        <v>4.67</v>
       </c>
       <c r="E3" t="n">
-        <v>3.25</v>
+        <v>23.99</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13</v>
+        <v>12.37</v>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>14.97</v>
       </c>
       <c r="H3" t="n">
-        <v>1.69</v>
+        <v>14.12</v>
       </c>
       <c r="I3" t="n">
-        <v>1.74</v>
+        <v>32.51</v>
       </c>
       <c r="J3" t="n">
-        <v>2.67</v>
+        <v>6.59</v>
       </c>
       <c r="K3" t="n">
-        <v>0.26</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.74</v>
+        <v>27.39</v>
       </c>
       <c r="C4" t="n">
-        <v>0.83</v>
+        <v>4.67</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.41</v>
+        <v>21.36</v>
       </c>
       <c r="F4" t="n">
-        <v>0.29</v>
+        <v>5.63</v>
       </c>
       <c r="G4" t="n">
-        <v>1.87</v>
+        <v>18.14</v>
       </c>
       <c r="H4" t="n">
-        <v>0.86</v>
+        <v>6.93</v>
       </c>
       <c r="I4" t="n">
-        <v>0.91</v>
+        <v>25.79</v>
       </c>
       <c r="J4" t="n">
-        <v>1.84</v>
+        <v>11.36</v>
       </c>
       <c r="K4" t="n">
-        <v>0.57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.67</v>
+        <v>3.51</v>
       </c>
       <c r="C5" t="n">
-        <v>3.25</v>
+        <v>23.99</v>
       </c>
       <c r="D5" t="n">
-        <v>2.41</v>
+        <v>21.36</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>25.95</v>
       </c>
       <c r="G5" t="n">
-        <v>0.54</v>
+        <v>7.99</v>
       </c>
       <c r="H5" t="n">
-        <v>1.56</v>
+        <v>19.77</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>19.51</v>
       </c>
       <c r="J5" t="n">
-        <v>0.58</v>
+        <v>6.65</v>
       </c>
       <c r="K5" t="n">
-        <v>2.99</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.45</v>
+        <v>24.81</v>
       </c>
       <c r="C6" t="n">
-        <v>1.13</v>
+        <v>12.37</v>
       </c>
       <c r="D6" t="n">
-        <v>0.29</v>
+        <v>5.63</v>
       </c>
       <c r="E6" t="n">
-        <v>2.12</v>
+        <v>25.95</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.58</v>
+        <v>21.94</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="I6" t="n">
-        <v>0.62</v>
+        <v>42.55</v>
       </c>
       <c r="J6" t="n">
-        <v>1.54</v>
+        <v>21.23</v>
       </c>
       <c r="K6" t="n">
-        <v>0.87</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.13</v>
+        <v>23.27</v>
       </c>
       <c r="C7" t="n">
-        <v>2.7</v>
+        <v>14.97</v>
       </c>
       <c r="D7" t="n">
-        <v>1.87</v>
+        <v>18.14</v>
       </c>
       <c r="E7" t="n">
-        <v>0.54</v>
+        <v>7.99</v>
       </c>
       <c r="F7" t="n">
-        <v>1.58</v>
+        <v>21.94</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.01</v>
+        <v>19.39</v>
       </c>
       <c r="I7" t="n">
-        <v>0.96</v>
+        <v>14.5</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>2.44</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.88</v>
+        <v>34.76</v>
       </c>
       <c r="C8" t="n">
-        <v>1.69</v>
+        <v>14.12</v>
       </c>
       <c r="D8" t="n">
-        <v>0.86</v>
+        <v>6.93</v>
       </c>
       <c r="E8" t="n">
-        <v>1.56</v>
+        <v>19.77</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="G8" t="n">
-        <v>1.01</v>
+        <v>19.39</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05</v>
+        <v>34.77</v>
       </c>
       <c r="J8" t="n">
-        <v>0.98</v>
+        <v>18.86</v>
       </c>
       <c r="K8" t="n">
-        <v>1.43</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.83</v>
+        <v>12.83</v>
       </c>
       <c r="C9" t="n">
-        <v>1.74</v>
+        <v>32.51</v>
       </c>
       <c r="D9" t="n">
-        <v>0.91</v>
+        <v>25.79</v>
       </c>
       <c r="E9" t="n">
-        <v>1.5</v>
+        <v>19.51</v>
       </c>
       <c r="F9" t="n">
-        <v>0.62</v>
+        <v>42.55</v>
       </c>
       <c r="G9" t="n">
-        <v>0.96</v>
+        <v>14.5</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05</v>
+        <v>34.77</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.93</v>
+        <v>18.94</v>
       </c>
       <c r="K9" t="n">
-        <v>1.48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>2.67</v>
+        <v>6.59</v>
       </c>
       <c r="D10" t="n">
-        <v>1.84</v>
+        <v>11.36</v>
       </c>
       <c r="E10" t="n">
-        <v>0.58</v>
+        <v>6.65</v>
       </c>
       <c r="F10" t="n">
-        <v>1.54</v>
+        <v>21.23</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.98</v>
+        <v>18.86</v>
       </c>
       <c r="I10" t="n">
-        <v>0.93</v>
+        <v>18.94</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.41</v>
+        <v>16.29</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.31</v>
+        <v>22.76</v>
       </c>
       <c r="C11" t="n">
-        <v>0.26</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.57</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>2.99</v>
+        <v>22.14</v>
       </c>
       <c r="F11" t="n">
-        <v>0.87</v>
+        <v>6.47</v>
       </c>
       <c r="G11" t="n">
-        <v>2.44</v>
+        <v>18.38</v>
       </c>
       <c r="H11" t="n">
-        <v>1.43</v>
+        <v>8.17</v>
       </c>
       <c r="I11" t="n">
-        <v>1.48</v>
+        <v>27</v>
       </c>
       <c r="J11" t="n">
-        <v>2.41</v>
+        <v>16.29</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
